--- a/medicine/Mort/Le_Triomphe_de_la_mort_(Nussbaum)/Le_Triomphe_de_la_mort_(Nussbaum).xlsx
+++ b/medicine/Mort/Le_Triomphe_de_la_mort_(Nussbaum)/Le_Triomphe_de_la_mort_(Nussbaum).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Triomphe de la mort (Triumph des Todes) est une peinture de Felix Nussbaum réalisée en 1944 et conservée dans la ville natale de l'auteur, Osnabrück.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce tableau, la dernière œuvre de Felix Nussbaum, a été peinte à Bruxelles le 18 avril 1944, c'est-à-dire deux mois avant son arrestation puis sa déportation vers un camp de concentration nazi en Pologne. Dans cet ultime tableau, qui rappelle une danse macabre médiévale, l'auteur exprime son attente d'une mort inévitable en peignant une scène de fin des temps. Nussbaum se sait déjà condamné : ce désespoir se reflète dans le paysage apocalyptique du tableau.
 Cette œuvre se rattache au courant de la Nouvelle Objectivité et à l'art allemand de l'entre-deux-guerres qui exprime l'obsession des horreurs de la Première Guerre mondiale et l'angoisse face à la montée du nazisme.
@@ -545,9 +559,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau est référencé dans le dernier tome de la série de bande-dessinée Spirou ou l'espoir malgré tout d'Émile Bravo. Spirou y étant un proche ami de Felix Nussbaum et s'étant procuré la toile pour son ami en lui disant de peindre dessus « quelque chose qui donne de l'espoir »[1]. Spirou retrouve la toile complétée dans la cachette de Felix, vide de ses occupants[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau est référencé dans le dernier tome de la série de bande-dessinée Spirou ou l'espoir malgré tout d'Émile Bravo. Spirou y étant un proche ami de Felix Nussbaum et s'étant procuré la toile pour son ami en lui disant de peindre dessus « quelque chose qui donne de l'espoir ». Spirou retrouve la toile complétée dans la cachette de Felix, vide de ses occupants.
 </t>
         </is>
       </c>
